--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15900" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15765" windowHeight="6330"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="2" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId1"/>
     <sheet name="OpenAccountTest" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -21,31 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>Raman</t>
-  </si>
-  <si>
-    <t>Arora</t>
-  </si>
-  <si>
-    <t>A234w4</t>
-  </si>
-  <si>
-    <t>alertText</t>
-  </si>
-  <si>
-    <t>Customer added successfully with customer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Ashutosh</t>
   </si>
@@ -63,6 +39,18 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>kietmca14@gmail.com</t>
+  </si>
+  <si>
+    <t>123456ABC</t>
   </si>
 </sst>
 </file>
@@ -385,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,43 +381,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -438,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -453,22 +432,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G1">
         <v>18</v>
@@ -477,7 +456,7 @@
         <v>1988</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J1">
         <v>9899445368</v>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -50,7 +50,7 @@
     <t>kietmca14@gmail.com</t>
   </si>
   <si>
-    <t>123456ABC</t>
+    <t>abcdefgh</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
